--- a/frameworkhome/testdata/New Microsoft Office Excel Worksheet.xlsx
+++ b/frameworkhome/testdata/New Microsoft Office Excel Worksheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="16590" windowHeight="3615"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14880" windowHeight="6570"/>
   </bookViews>
   <sheets>
     <sheet name="validvalue" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>manisha951992@gmail.com</t>
   </si>
@@ -34,7 +34,31 @@
     <t>anisha951992@gmail.com</t>
   </si>
   <si>
-    <t>manisha3d.20@rediffmail.com</t>
+    <t>drghdxh</t>
+  </si>
+  <si>
+    <t>fgnjxfjn</t>
+  </si>
+  <si>
+    <t>fgnjxfgjn</t>
+  </si>
+  <si>
+    <t>fm</t>
+  </si>
+  <si>
+    <t>fnm</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>dhjn</t>
+  </si>
+  <si>
+    <t>fjnjkyr</t>
   </si>
 </sst>
 </file>
@@ -379,9 +403,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -396,9 +422,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1" display="manisha3d.20@rediffmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
